--- a/medicine/Enfance/Les_Enquêtes_d'Enola_Holmes/Les_Enquêtes_d'Enola_Holmes.xlsx
+++ b/medicine/Enfance/Les_Enquêtes_d'Enola_Holmes/Les_Enquêtes_d'Enola_Holmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Enqu%C3%AAtes_d%27Enola_Holmes</t>
+          <t>Les_Enquêtes_d'Enola_Holmes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Enquêtes d'Enola Holmes est le titre d'une série de romans policiers pour la jeunesse écrite par Nancy Springer. Ces romans ont par la suite été adaptés en bande dessinée, puis au cinéma.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Enqu%C3%AAtes_d%27Enola_Holmes</t>
+          <t>Les_Enquêtes_d'Enola_Holmes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Enola Holmes est la sœur cadette du grand détective Sherlock Holmes et de Mycroft Holmes. Elle est née en juillet 1874 de Lady Eudoria Vernet Holmes et son mari. Sherlock et Mycroft ont respectivement 20 et 27 ans de plus qu'elle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Enola Holmes est la sœur cadette du grand détective Sherlock Holmes et de Mycroft Holmes. Elle est née en juillet 1874 de Lady Eudoria Vernet Holmes et son mari. Sherlock et Mycroft ont respectivement 20 et 27 ans de plus qu'elle.
 Leur père est mort quand elle avait quatre ans. Enola et sa mère vivent dans la maison familiale, Ferndell Hall, près du village de Kineford. Sherlock et Mycroft retournent à Ferndell pour la première fois depuis l'enterrement de leur père le jour où Lady Eudoria Vernet Holmes disparaît. Ils n'y sont pas revenus avant à cause d'un désaccord avec leur mère.
 Sherlock Holmes : détective créé par Conan Doyle. Il vit ici de nouvelles aventures dans lesquelles il croise régulièrement la route de sa sœur, dont il finit par se faire une alliée qu'il respecte.
 Docteur Watson : acolyte de Sherlock créé par Conan Doyle. À parfois aidé Enola sans la reconnaître sous ses déguisements.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Enqu%C3%AAtes_d%27Enola_Holmes</t>
+          <t>Les_Enquêtes_d'Enola_Holmes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Les romans</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Double Disparition, Fernand Nathan, 2007 ((en) The Case of the Missing Marquess)Réédité en 2009 chez Nathan poche, policier
 Enola (qui à l'envers se lit : alone, seule en anglais) vit avec sa mère dans leur demeure, vivant sans souci de l'étiquette.
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Enqu%C3%AAtes_d%27Enola_Holmes</t>
+          <t>Les_Enquêtes_d'Enola_Holmes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t>Les bandes dessinées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les romans de Nancy Springer sont adaptés en bandes dessinées par les éditions Jungle, coll. « Miss Jungle », avec la dessinatrice et coloriste Serena Blasco du tome 1 au 6, et Lucie Arnoux a graduellement repris la série depuis le tome 6.
 Tome 1 : La double disparition, 2015.
@@ -628,7 +646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Enqu%C3%AAtes_d%27Enola_Holmes</t>
+          <t>Les_Enquêtes_d'Enola_Holmes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,10 +664,12 @@
           <t>Adaptations cinématographiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier roman de la série, La Double Disparition, est adapté en un long-métrage par Harry Bradbeer en 2020, produit par Legendary Pictures et Warner Bros., sous le nom Enola Holmes. Le rôle-titre est incarné par Millie Bobby Brown et Sherlock Holmes par Henry Cavill[2]. Au départ prévu pour une sortie au cinéma, le film est finalement distribué sur le service Netflix, conséquence de la pandémie de Covid-19[3].
-La suite, Enola Holmes 2, est également sortie sur Netflix en 2022. Il s'agit cette fois d'une histoire inédite et non de l'adaptation de l'un des romans[4],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier roman de la série, La Double Disparition, est adapté en un long-métrage par Harry Bradbeer en 2020, produit par Legendary Pictures et Warner Bros., sous le nom Enola Holmes. Le rôle-titre est incarné par Millie Bobby Brown et Sherlock Holmes par Henry Cavill. Au départ prévu pour une sortie au cinéma, le film est finalement distribué sur le service Netflix, conséquence de la pandémie de Covid-19.
+La suite, Enola Holmes 2, est également sortie sur Netflix en 2022. Il s'agit cette fois d'une histoire inédite et non de l'adaptation de l'un des romans,.
 </t>
         </is>
       </c>
